--- a/data/df_Level6.xlsx
+++ b/data/df_Level6.xlsx
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF4" t="n">
         <v>0</v>
@@ -3434,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
         <v>0</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="EB5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="EM5" t="n">
         <v>0</v>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="FF5" t="n">
         <v>0</v>
@@ -4666,95 +4666,95 @@
         <v>0</v>
       </c>
       <c r="EB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0.4330127018922193</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
         <v>4</v>
       </c>
-      <c r="EC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="EM6" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="EN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES6" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV6" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="EW6" t="n">
-        <v>0.4865042554105199</v>
-      </c>
-      <c r="EX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="FA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE6" t="n">
-        <v>13</v>
-      </c>
       <c r="FF6" t="n">
         <v>0</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>1.846153846153846</v>
+        <v>1.5</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.36080121229411</v>
+        <v>0.5</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="EB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
         <v>0</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="FE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT7" t="n">
         <v>0</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="EB8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC8" t="n">
         <v>0</v>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM8" t="n">
         <v>0</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="EZ8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="FE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF8" t="n">
         <v>0</v>
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="FS8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT8" t="n">
         <v>0</v>
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="EN10" t="n">
         <v>0</v>
@@ -7445,7 +7445,7 @@
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
         <v>0</v>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
         <v>0</v>
@@ -7463,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="FC10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FD10" t="n">
         <v>0</v>
       </c>
       <c r="FE10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -7505,13 +7505,13 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="FT10" t="n">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="GB10" t="n">
-        <v>1.224744871391589</v>
+        <v>0</v>
       </c>
       <c r="GC10" t="n">
         <v>0</v>
@@ -7547,13 +7547,13 @@
         <v>0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
       <c r="GF10" t="n">
         <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
       <c r="GH10" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="EB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EM11" t="n">
         <v>0</v>
@@ -8121,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="EZ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="FE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF11" t="n">
         <v>0</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
@@ -8190,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="FT11" t="n">
         <v>0</v>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GC11" t="n">
         <v>0</v>
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GH11" t="n">
         <v>0</v>
@@ -8722,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="EB12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
         <v>0</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="EZ12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
         <v>0</v>
@@ -8827,7 +8827,7 @@
         <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
         <v>0</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT12" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="DV13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="DW13" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="EB13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="EZ13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
         <v>0</v>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
         <v>0</v>
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="EB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM14" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="FE14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
         <v>0</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="FS14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT14" t="n">
         <v>0</v>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="EB15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="EL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM15" t="n">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="EZ15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="FO15" t="n">
         <v>0</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="FT15" t="n">
         <v>0</v>
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GC15" t="n">
         <v>0</v>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GH15" t="n">
         <v>0</v>
@@ -12117,7 +12117,7 @@
         <v>0.2696565991042</v>
       </c>
       <c r="DV17" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="DW17" t="n">
         <v>0</v>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="EB17" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="EC17" t="n">
         <v>0</v>
@@ -12147,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>1.166666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="EG17" t="n">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.7453559924999299</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="EQ17" t="n">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="EZ17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="FA17" t="n">
         <v>0</v>
@@ -12222,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="FE17" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="FF17" t="n">
         <v>0</v>
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="FO17" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>0</v>
       </c>
       <c r="FS17" t="n">
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="FT17" t="n">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="GC17" t="n">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.1998263134713633</v>
+        <v>0</v>
       </c>
       <c r="GH17" t="n">
         <v>0</v>
@@ -13475,7 +13475,7 @@
         <v>0</v>
       </c>
       <c r="DV19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DW19" t="n">
         <v>0</v>
@@ -13493,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="EB19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="EC19" t="n">
         <v>0</v>
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="EF19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="EG19" t="n">
         <v>0</v>
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="EL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM19" t="n">
         <v>0</v>
@@ -13535,7 +13535,7 @@
         <v>0</v>
       </c>
       <c r="EP19" t="n">
-        <v>0.4898979485566357</v>
+        <v>0</v>
       </c>
       <c r="EQ19" t="n">
         <v>0</v>
@@ -13565,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="EZ19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FA19" t="n">
         <v>0</v>
@@ -13580,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="FE19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FF19" t="n">
         <v>0</v>
@@ -13607,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="FN19" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="FO19" t="n">
         <v>0</v>
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="FS19" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="FT19" t="n">
         <v>0</v>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="GB19" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GC19" t="n">
         <v>0</v>
@@ -13664,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="GG19" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GH19" t="n">
         <v>0</v>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
       <c r="EB20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC20" t="n">
         <v>0</v>
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="EL20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM20" t="n">
         <v>0</v>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="EZ20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FA20" t="n">
         <v>0</v>
@@ -14259,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="FE20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF20" t="n">
         <v>0</v>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="FN20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="FO20" t="n">
         <v>0</v>
@@ -14301,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="FS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT20" t="n">
         <v>0</v>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
       <c r="GB20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GC20" t="n">
         <v>0</v>
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="EB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC21" t="n">
         <v>0</v>
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="EL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM21" t="n">
         <v>0</v>
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="EZ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA21" t="n">
         <v>0</v>
@@ -14932,13 +14932,13 @@
         <v>0</v>
       </c>
       <c r="FC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD21" t="n">
         <v>0</v>
       </c>
       <c r="FE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF21" t="n">
         <v>0</v>
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="FN21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO21" t="n">
         <v>0</v>
@@ -14974,13 +14974,13 @@
         <v>0</v>
       </c>
       <c r="FQ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR21" t="n">
         <v>0</v>
       </c>
       <c r="FS21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT21" t="n">
         <v>0</v>
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
       <c r="EB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC22" t="n">
         <v>0</v>
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="EL22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM22" t="n">
         <v>0</v>
@@ -15602,7 +15602,7 @@
         <v>0</v>
       </c>
       <c r="EZ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA22" t="n">
         <v>0</v>
@@ -15611,13 +15611,13 @@
         <v>0</v>
       </c>
       <c r="FC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD22" t="n">
         <v>0</v>
       </c>
       <c r="FE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF22" t="n">
         <v>0</v>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
       <c r="FN22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO22" t="n">
         <v>0</v>
@@ -15653,13 +15653,13 @@
         <v>0</v>
       </c>
       <c r="FQ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR22" t="n">
         <v>0</v>
       </c>
       <c r="FS22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT22" t="n">
         <v>0</v>
@@ -16209,13 +16209,13 @@
         <v>0</v>
       </c>
       <c r="EB23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="EC23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="ED23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EE23" t="n">
         <v>0</v>
@@ -16239,13 +16239,13 @@
         <v>0</v>
       </c>
       <c r="EL23" t="n">
-        <v>0.9166666666666666</v>
+        <v>0</v>
       </c>
       <c r="EM23" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="EN23" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="EO23" t="n">
         <v>0</v>
@@ -16269,19 +16269,19 @@
         <v>0</v>
       </c>
       <c r="EV23" t="n">
-        <v>0.2763853991962833</v>
+        <v>0</v>
       </c>
       <c r="EW23" t="n">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
       <c r="EX23" t="n">
-        <v>0.3726779962499649</v>
+        <v>0</v>
       </c>
       <c r="EY23" t="n">
         <v>0</v>
       </c>
       <c r="EZ23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FA23" t="n">
         <v>0</v>
@@ -16290,13 +16290,13 @@
         <v>0</v>
       </c>
       <c r="FC23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FD23" t="n">
         <v>0</v>
       </c>
       <c r="FE23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FF23" t="n">
         <v>0</v>
@@ -16323,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="FN23" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="FO23" t="n">
         <v>0</v>
@@ -16332,13 +16332,13 @@
         <v>0</v>
       </c>
       <c r="FQ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR23" t="n">
         <v>0</v>
       </c>
       <c r="FS23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT23" t="n">
         <v>0</v>
@@ -16365,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="GB23" t="n">
-        <v>0.3726779962499649</v>
+        <v>0</v>
       </c>
       <c r="GC23" t="n">
         <v>0</v>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
       <c r="EB24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="EC24" t="n">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="EL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM24" t="n">
         <v>0</v>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
       <c r="EZ24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="FA24" t="n">
         <v>0</v>
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="FE24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="FF24" t="n">
         <v>0</v>
@@ -17002,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="FN24" t="n">
-        <v>1.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="FO24" t="n">
         <v>0</v>
@@ -17017,7 +17017,7 @@
         <v>0</v>
       </c>
       <c r="FS24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT24" t="n">
         <v>0</v>
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="GB24" t="n">
-        <v>0.415739709641549</v>
+        <v>0</v>
       </c>
       <c r="GC24" t="n">
         <v>0</v>
@@ -17567,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="EB25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="EC25" t="n">
         <v>0</v>
@@ -17597,7 +17597,7 @@
         <v>0</v>
       </c>
       <c r="EL25" t="n">
-        <v>0.8181818181818182</v>
+        <v>0</v>
       </c>
       <c r="EM25" t="n">
         <v>0</v>
@@ -17627,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="EV25" t="n">
-        <v>0.385694607919935</v>
+        <v>0</v>
       </c>
       <c r="EW25" t="n">
         <v>0</v>
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="EZ25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FA25" t="n">
         <v>0</v>
@@ -17648,13 +17648,13 @@
         <v>0</v>
       </c>
       <c r="FC25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD25" t="n">
         <v>0</v>
       </c>
       <c r="FE25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="FF25" t="n">
         <v>0</v>
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="FN25" t="n">
-        <v>1.090909090909091</v>
+        <v>0</v>
       </c>
       <c r="FO25" t="n">
         <v>0</v>
@@ -17690,13 +17690,13 @@
         <v>0</v>
       </c>
       <c r="FQ25" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="FR25" t="n">
         <v>0</v>
       </c>
       <c r="FS25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT25" t="n">
         <v>0</v>
@@ -17723,7 +17723,7 @@
         <v>0</v>
       </c>
       <c r="GB25" t="n">
-        <v>0.5142594772265801</v>
+        <v>0</v>
       </c>
       <c r="GC25" t="n">
         <v>0</v>
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="GE25" t="n">
-        <v>0.385694607919935</v>
+        <v>0</v>
       </c>
       <c r="GF25" t="n">
         <v>0</v>
@@ -18228,7 +18228,7 @@
         <v>0.3726779962499649</v>
       </c>
       <c r="DV26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="DW26" t="n">
         <v>0</v>
@@ -18246,7 +18246,7 @@
         <v>0</v>
       </c>
       <c r="EB26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="EC26" t="n">
         <v>0</v>
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="EF26" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="EG26" t="n">
         <v>0</v>
@@ -18288,7 +18288,7 @@
         <v>0</v>
       </c>
       <c r="EP26" t="n">
-        <v>0.3307189138830738</v>
+        <v>0</v>
       </c>
       <c r="EQ26" t="n">
         <v>0</v>
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
       <c r="EZ26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="FA26" t="n">
         <v>0</v>
@@ -18333,7 +18333,7 @@
         <v>0</v>
       </c>
       <c r="FE26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="FF26" t="n">
         <v>0</v>
@@ -18360,7 +18360,7 @@
         <v>0</v>
       </c>
       <c r="FN26" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="FO26" t="n">
         <v>0</v>
@@ -18402,7 +18402,7 @@
         <v>0</v>
       </c>
       <c r="GB26" t="n">
-        <v>0.3307189138830738</v>
+        <v>0</v>
       </c>
       <c r="GC26" t="n">
         <v>0</v>
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="EB27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EC27" t="n">
         <v>0</v>
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
       <c r="EZ27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="FA27" t="n">
         <v>0</v>
@@ -19012,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="FE27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FF27" t="n">
         <v>0</v>
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="FS27" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="FT27" t="n">
         <v>0</v>
@@ -19096,7 +19096,7 @@
         <v>0</v>
       </c>
       <c r="GG27" t="n">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
       <c r="GH27" t="n">
         <v>0</v>
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="EB28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="EC28" t="n">
         <v>0</v>
@@ -19634,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="EL28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="EM28" t="n">
         <v>0</v>
@@ -19664,7 +19664,7 @@
         <v>0</v>
       </c>
       <c r="EV28" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.5</v>
       </c>
       <c r="EW28" t="n">
         <v>0</v>
@@ -19676,7 +19676,7 @@
         <v>0</v>
       </c>
       <c r="EZ28" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="FA28" t="n">
         <v>0</v>
@@ -19691,7 +19691,7 @@
         <v>0</v>
       </c>
       <c r="FE28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="FF28" t="n">
         <v>0</v>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="FN28" t="n">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="FO28" t="n">
         <v>0</v>
@@ -19733,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="FS28" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="FT28" t="n">
         <v>0</v>
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="GB28" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.5</v>
       </c>
       <c r="GC28" t="n">
         <v>0</v>
@@ -19775,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="GG28" t="n">
-        <v>0.372677996249965</v>
+        <v>0</v>
       </c>
       <c r="GH28" t="n">
         <v>0</v>
@@ -20265,7 +20265,7 @@
         <v>0.2374868417407583</v>
       </c>
       <c r="DV29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW29" t="n">
         <v>0</v>
@@ -20283,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="EB29" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="EC29" t="n">
         <v>0</v>
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="EF29" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="EG29" t="n">
         <v>0</v>
@@ -20325,7 +20325,7 @@
         <v>0</v>
       </c>
       <c r="EP29" t="n">
-        <v>0.3608012122941099</v>
+        <v>0</v>
       </c>
       <c r="EQ29" t="n">
         <v>0</v>
@@ -20355,7 +20355,7 @@
         <v>0</v>
       </c>
       <c r="EZ29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="FA29" t="n">
         <v>0</v>
@@ -20370,7 +20370,7 @@
         <v>0</v>
       </c>
       <c r="FE29" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="FF29" t="n">
         <v>0</v>
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="FN29" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="FO29" t="n">
         <v>0</v>
@@ -20412,7 +20412,7 @@
         <v>0</v>
       </c>
       <c r="FS29" t="n">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="FT29" t="n">
         <v>0</v>
@@ -20439,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="GB29" t="n">
-        <v>0.737820234355803</v>
+        <v>0.816496580927726</v>
       </c>
       <c r="GC29" t="n">
         <v>0</v>
@@ -20454,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="GG29" t="n">
-        <v>0.2664693550105965</v>
+        <v>0</v>
       </c>
       <c r="GH29" t="n">
         <v>0</v>
@@ -20944,7 +20944,7 @@
         <v>0.2270908363053963</v>
       </c>
       <c r="DV30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW30" t="n">
         <v>0</v>
@@ -20962,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="EB30" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="EC30" t="n">
         <v>0</v>
@@ -20974,7 +20974,7 @@
         <v>0</v>
       </c>
       <c r="EF30" t="n">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="EG30" t="n">
         <v>0</v>
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="EL30" t="n">
-        <v>1.058823529411765</v>
+        <v>1</v>
       </c>
       <c r="EM30" t="n">
         <v>0</v>
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="EP30" t="n">
-        <v>0.3221897397089212</v>
+        <v>0</v>
       </c>
       <c r="EQ30" t="n">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="EV30" t="n">
-        <v>0.2352941176470588</v>
+        <v>0</v>
       </c>
       <c r="EW30" t="n">
         <v>0</v>
@@ -21034,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="EZ30" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="FA30" t="n">
         <v>0</v>
@@ -21049,7 +21049,7 @@
         <v>0</v>
       </c>
       <c r="FE30" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="FF30" t="n">
         <v>0</v>
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="FN30" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="FO30" t="n">
         <v>0</v>
@@ -21091,7 +21091,7 @@
         <v>0</v>
       </c>
       <c r="FS30" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="FT30" t="n">
         <v>0</v>
@@ -21118,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="GB30" t="n">
-        <v>0.8065476000471816</v>
+        <v>0.816496580927726</v>
       </c>
       <c r="GC30" t="n">
         <v>0</v>
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="GG30" t="n">
-        <v>0.2352941176470588</v>
+        <v>0</v>
       </c>
       <c r="GH30" t="n">
         <v>0</v>
@@ -21641,7 +21641,7 @@
         <v>0</v>
       </c>
       <c r="EB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC31" t="n">
         <v>0</v>
@@ -21671,7 +21671,7 @@
         <v>0</v>
       </c>
       <c r="EL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM31" t="n">
         <v>0</v>
@@ -21713,7 +21713,7 @@
         <v>0</v>
       </c>
       <c r="EZ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA31" t="n">
         <v>0</v>
@@ -21722,13 +21722,13 @@
         <v>0</v>
       </c>
       <c r="FC31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD31" t="n">
         <v>0</v>
       </c>
       <c r="FE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF31" t="n">
         <v>0</v>
@@ -21755,7 +21755,7 @@
         <v>0</v>
       </c>
       <c r="FN31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO31" t="n">
         <v>0</v>
@@ -21764,13 +21764,13 @@
         <v>0</v>
       </c>
       <c r="FQ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR31" t="n">
         <v>0</v>
       </c>
       <c r="FS31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT31" t="n">
         <v>0</v>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="EB32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="EC32" t="n">
         <v>0</v>
@@ -22350,7 +22350,7 @@
         <v>0</v>
       </c>
       <c r="EL32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM32" t="n">
         <v>0</v>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="EZ32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FA32" t="n">
         <v>0</v>
@@ -22401,13 +22401,13 @@
         <v>0</v>
       </c>
       <c r="FC32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FD32" t="n">
         <v>0</v>
       </c>
       <c r="FE32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FF32" t="n">
         <v>0</v>
@@ -22434,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="FN32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO32" t="n">
         <v>0</v>
@@ -22443,13 +22443,13 @@
         <v>0</v>
       </c>
       <c r="FQ32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR32" t="n">
         <v>0</v>
       </c>
       <c r="FS32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT32" t="n">
         <v>0</v>
@@ -22999,7 +22999,7 @@
         <v>0</v>
       </c>
       <c r="EB33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="EC33" t="n">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="EL33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM33" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="EZ33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FA33" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="FC33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FD33" t="n">
         <v>0</v>
       </c>
       <c r="FE33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FF33" t="n">
         <v>0</v>
@@ -23113,7 +23113,7 @@
         <v>0</v>
       </c>
       <c r="FN33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO33" t="n">
         <v>0</v>
@@ -23122,13 +23122,13 @@
         <v>0</v>
       </c>
       <c r="FQ33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR33" t="n">
         <v>0</v>
       </c>
       <c r="FS33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT33" t="n">
         <v>0</v>
@@ -23660,7 +23660,7 @@
         <v>0.3307189138830738</v>
       </c>
       <c r="DV34" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="DW34" t="n">
         <v>0</v>
@@ -23678,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="EB34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="EC34" t="n">
         <v>0</v>
@@ -23690,7 +23690,7 @@
         <v>0</v>
       </c>
       <c r="EF34" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.5</v>
       </c>
       <c r="EG34" t="n">
         <v>0</v>
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
       <c r="EL34" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="EM34" t="n">
         <v>0</v>
@@ -23720,7 +23720,7 @@
         <v>0</v>
       </c>
       <c r="EP34" t="n">
-        <v>0.3608012122941099</v>
+        <v>0.5</v>
       </c>
       <c r="EQ34" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="EV34" t="n">
-        <v>0.2664693550105965</v>
+        <v>0.5</v>
       </c>
       <c r="EW34" t="n">
         <v>0</v>
@@ -23765,7 +23765,7 @@
         <v>0</v>
       </c>
       <c r="FE34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="FF34" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="FN34" t="n">
-        <v>0.1538461538461539</v>
+        <v>1</v>
       </c>
       <c r="FO34" t="n">
         <v>0</v>
@@ -23807,7 +23807,7 @@
         <v>0</v>
       </c>
       <c r="FS34" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.5</v>
       </c>
       <c r="FT34" t="n">
         <v>0</v>
@@ -23834,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="GB34" t="n">
-        <v>0.5329387100211931</v>
+        <v>1</v>
       </c>
       <c r="GC34" t="n">
         <v>0</v>
@@ -23849,7 +23849,7 @@
         <v>0</v>
       </c>
       <c r="GG34" t="n">
-        <v>0.2664693550105965</v>
+        <v>0.5</v>
       </c>
       <c r="GH34" t="n">
         <v>0</v>
@@ -24339,7 +24339,7 @@
         <v>0.2935435239509036</v>
       </c>
       <c r="DV35" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DW35" t="n">
         <v>0</v>
@@ -24357,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="EB35" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="EC35" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="EF35" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="EG35" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>0</v>
       </c>
       <c r="EL35" t="n">
-        <v>1.066666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="EM35" t="n">
         <v>0</v>
@@ -24399,7 +24399,7 @@
         <v>0</v>
       </c>
       <c r="EP35" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="EQ35" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="EV35" t="n">
-        <v>0.4422166387140533</v>
+        <v>0.5</v>
       </c>
       <c r="EW35" t="n">
         <v>0</v>
@@ -24444,7 +24444,7 @@
         <v>0</v>
       </c>
       <c r="FE35" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="FF35" t="n">
         <v>0</v>
@@ -24471,7 +24471,7 @@
         <v>0</v>
       </c>
       <c r="FN35" t="n">
-        <v>0.1333333333333333</v>
+        <v>1</v>
       </c>
       <c r="FO35" t="n">
         <v>0</v>
@@ -24486,7 +24486,7 @@
         <v>0</v>
       </c>
       <c r="FS35" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="FT35" t="n">
         <v>0</v>
@@ -24513,7 +24513,7 @@
         <v>0</v>
       </c>
       <c r="GB35" t="n">
-        <v>0.4988876515698589</v>
+        <v>1</v>
       </c>
       <c r="GC35" t="n">
         <v>0</v>
@@ -24528,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="GG35" t="n">
-        <v>0.2494438257849295</v>
+        <v>0.5</v>
       </c>
       <c r="GH35" t="n">
         <v>0</v>
@@ -25036,7 +25036,7 @@
         <v>0</v>
       </c>
       <c r="EB36" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="EC36" t="n">
         <v>0</v>
@@ -25108,7 +25108,7 @@
         <v>0</v>
       </c>
       <c r="EZ36" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="FA36" t="n">
         <v>0</v>
@@ -25117,41 +25117,41 @@
         <v>0</v>
       </c>
       <c r="FC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE36" t="n">
+        <v>3</v>
+      </c>
+      <c r="FF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN36" t="n">
         <v>1</v>
       </c>
-      <c r="FD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE36" t="n">
-        <v>21</v>
-      </c>
-      <c r="FF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN36" t="n">
-        <v>0.6428571428571429</v>
-      </c>
       <c r="FO36" t="n">
         <v>0</v>
       </c>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="FQ36" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="FR36" t="n">
         <v>0</v>
@@ -25192,7 +25192,7 @@
         <v>0</v>
       </c>
       <c r="GB36" t="n">
-        <v>0.7178482586514923</v>
+        <v>1</v>
       </c>
       <c r="GC36" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="GE36" t="n">
-        <v>0.2575393768188564</v>
+        <v>0</v>
       </c>
       <c r="GF36" t="n">
         <v>0</v>
@@ -25787,7 +25787,7 @@
         <v>0</v>
       </c>
       <c r="EZ37" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="FA37" t="n">
         <v>0</v>
@@ -25802,7 +25802,7 @@
         <v>0</v>
       </c>
       <c r="FE37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="FF37" t="n">
         <v>0</v>
@@ -26376,7 +26376,7 @@
         <v>0.2874797872880345</v>
       </c>
       <c r="DV38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DW38" t="n">
         <v>0</v>
@@ -26394,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="EB38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="EC38" t="n">
         <v>0</v>
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="EF38" t="n">
-        <v>0.6666666666666666</v>
+        <v>2</v>
       </c>
       <c r="EG38" t="n">
         <v>0</v>
@@ -26436,7 +26436,7 @@
         <v>0</v>
       </c>
       <c r="EP38" t="n">
-        <v>0.74535599249993</v>
+        <v>0</v>
       </c>
       <c r="EQ38" t="n">
         <v>0</v>
@@ -26466,23 +26466,23 @@
         <v>0</v>
       </c>
       <c r="EZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE38" t="n">
         <v>1</v>
       </c>
-      <c r="FA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC38" t="n">
-        <v>5</v>
-      </c>
-      <c r="FD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE38" t="n">
-        <v>6</v>
-      </c>
       <c r="FF38" t="n">
         <v>0</v>
       </c>
@@ -26508,7 +26508,7 @@
         <v>0</v>
       </c>
       <c r="FN38" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="FO38" t="n">
         <v>0</v>
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="FQ38" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="FR38" t="n">
         <v>0</v>
@@ -26550,7 +26550,7 @@
         <v>0</v>
       </c>
       <c r="GB38" t="n">
-        <v>0.372677996249965</v>
+        <v>0</v>
       </c>
       <c r="GC38" t="n">
         <v>0</v>
@@ -26559,7 +26559,7 @@
         <v>0</v>
       </c>
       <c r="GE38" t="n">
-        <v>0.3726779962499649</v>
+        <v>0</v>
       </c>
       <c r="GF38" t="n">
         <v>0</v>
@@ -27073,7 +27073,7 @@
         <v>0</v>
       </c>
       <c r="EB39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="EC39" t="n">
         <v>0</v>
@@ -27103,7 +27103,7 @@
         <v>0</v>
       </c>
       <c r="EL39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM39" t="n">
         <v>0</v>
@@ -27145,7 +27145,7 @@
         <v>0</v>
       </c>
       <c r="EZ39" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="FA39" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="FC39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD39" t="n">
         <v>0</v>
       </c>
       <c r="FE39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF39" t="n">
         <v>0</v>
@@ -27187,7 +27187,7 @@
         <v>0</v>
       </c>
       <c r="FN39" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="FO39" t="n">
         <v>0</v>
@@ -27196,13 +27196,13 @@
         <v>0</v>
       </c>
       <c r="FQ39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="FR39" t="n">
         <v>0</v>
       </c>
       <c r="FS39" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FT39" t="n">
         <v>0</v>
@@ -27229,7 +27229,7 @@
         <v>0</v>
       </c>
       <c r="GB39" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GC39" t="n">
         <v>0</v>
@@ -27238,13 +27238,13 @@
         <v>0</v>
       </c>
       <c r="GE39" t="n">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
       <c r="GF39" t="n">
         <v>0</v>
       </c>
       <c r="GG39" t="n">
-        <v>0.4898979485566357</v>
+        <v>0</v>
       </c>
       <c r="GH39" t="n">
         <v>0</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="EB40" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EC40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="ED40" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="EL40" t="n">
-        <v>0.7647058823529411</v>
+        <v>0</v>
       </c>
       <c r="EM40" t="n">
-        <v>0.2352941176470588</v>
+        <v>0</v>
       </c>
       <c r="EN40" t="n">
         <v>0</v>
@@ -27812,10 +27812,10 @@
         <v>0</v>
       </c>
       <c r="EV40" t="n">
-        <v>0.4241825029957634</v>
+        <v>0</v>
       </c>
       <c r="EW40" t="n">
-        <v>0.4241825029957634</v>
+        <v>0</v>
       </c>
       <c r="EX40" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="EZ40" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="FA40" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="FC40" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="FD40" t="n">
         <v>0</v>
       </c>
       <c r="FE40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FF40" t="n">
         <v>0</v>
@@ -27866,7 +27866,7 @@
         <v>0</v>
       </c>
       <c r="FN40" t="n">
-        <v>1.235294117647059</v>
+        <v>0</v>
       </c>
       <c r="FO40" t="n">
         <v>0</v>
@@ -27875,13 +27875,13 @@
         <v>0</v>
       </c>
       <c r="FQ40" t="n">
-        <v>0.7647058823529411</v>
+        <v>0</v>
       </c>
       <c r="FR40" t="n">
         <v>0</v>
       </c>
       <c r="FS40" t="n">
-        <v>0.7058823529411765</v>
+        <v>0</v>
       </c>
       <c r="FT40" t="n">
         <v>0</v>
@@ -27908,7 +27908,7 @@
         <v>0</v>
       </c>
       <c r="GB40" t="n">
-        <v>0.4241825029957634</v>
+        <v>0</v>
       </c>
       <c r="GC40" t="n">
         <v>0</v>
@@ -27917,13 +27917,13 @@
         <v>0</v>
       </c>
       <c r="GE40" t="n">
-        <v>0.4241825029957634</v>
+        <v>0</v>
       </c>
       <c r="GF40" t="n">
         <v>0</v>
       </c>
       <c r="GG40" t="n">
-        <v>0.4556450995538138</v>
+        <v>0</v>
       </c>
       <c r="GH40" t="n">
         <v>0</v>
@@ -29771,7 +29771,7 @@
         <v>0</v>
       </c>
       <c r="DV43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW43" t="n">
         <v>0</v>
@@ -29789,7 +29789,7 @@
         <v>0</v>
       </c>
       <c r="EB43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC43" t="n">
         <v>0</v>
@@ -29801,7 +29801,7 @@
         <v>0</v>
       </c>
       <c r="EF43" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EG43" t="n">
         <v>0</v>
@@ -29819,7 +29819,7 @@
         <v>0</v>
       </c>
       <c r="EL43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM43" t="n">
         <v>0</v>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="EP43" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EQ43" t="n">
         <v>0</v>
@@ -29870,13 +29870,13 @@
         <v>0</v>
       </c>
       <c r="FC43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD43" t="n">
         <v>0</v>
       </c>
       <c r="FE43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF43" t="n">
         <v>0</v>
@@ -29912,13 +29912,13 @@
         <v>0</v>
       </c>
       <c r="FQ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR43" t="n">
         <v>0</v>
       </c>
       <c r="FS43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT43" t="n">
         <v>0</v>
@@ -30468,13 +30468,13 @@
         <v>0</v>
       </c>
       <c r="EB44" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="EC44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="ED44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EE44" t="n">
         <v>0</v>
@@ -30498,13 +30498,13 @@
         <v>0</v>
       </c>
       <c r="EL44" t="n">
-        <v>0.4</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="EM44" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EN44" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="EO44" t="n">
         <v>0</v>
@@ -30528,19 +30528,19 @@
         <v>0</v>
       </c>
       <c r="EV44" t="n">
-        <v>0.5537749241945384</v>
+        <v>0.3646422752776584</v>
       </c>
       <c r="EW44" t="n">
-        <v>0.458257569495584</v>
+        <v>0</v>
       </c>
       <c r="EX44" t="n">
-        <v>0.3726779962499649</v>
+        <v>0.4076824574955176</v>
       </c>
       <c r="EY44" t="n">
         <v>0</v>
       </c>
       <c r="EZ44" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="FA44" t="n">
         <v>0</v>
@@ -30555,7 +30555,7 @@
         <v>0</v>
       </c>
       <c r="FE44" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="FF44" t="n">
         <v>0</v>
@@ -30582,7 +30582,7 @@
         <v>0</v>
       </c>
       <c r="FN44" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="FO44" t="n">
         <v>0</v>
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="FS44" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="FT44" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="GB44" t="n">
-        <v>0.8825468196582485</v>
+        <v>0.871207650381413</v>
       </c>
       <c r="GC44" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="GG44" t="n">
-        <v>0.4988876515698589</v>
+        <v>0.464829519280413</v>
       </c>
       <c r="GH44" t="n">
         <v>0</v>
@@ -31147,13 +31147,13 @@
         <v>0</v>
       </c>
       <c r="EB45" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="EC45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="ED45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="EE45" t="n">
         <v>0</v>
@@ -31177,13 +31177,13 @@
         <v>0</v>
       </c>
       <c r="EL45" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.25</v>
       </c>
       <c r="EM45" t="n">
-        <v>0.2903225806451613</v>
+        <v>0</v>
       </c>
       <c r="EN45" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.2</v>
       </c>
       <c r="EO45" t="n">
         <v>0</v>
@@ -31207,19 +31207,19 @@
         <v>0</v>
       </c>
       <c r="EV45" t="n">
-        <v>0.6137515351754983</v>
+        <v>0.5361902647381804</v>
       </c>
       <c r="EW45" t="n">
-        <v>0.4539112025635578</v>
+        <v>0</v>
       </c>
       <c r="EX45" t="n">
-        <v>0.3677985242255284</v>
+        <v>0.4</v>
       </c>
       <c r="EY45" t="n">
         <v>0</v>
       </c>
       <c r="EZ45" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="FA45" t="n">
         <v>0</v>
@@ -31234,7 +31234,7 @@
         <v>0</v>
       </c>
       <c r="FE45" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="FF45" t="n">
         <v>0</v>
@@ -31261,7 +31261,7 @@
         <v>0</v>
       </c>
       <c r="FN45" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.35</v>
       </c>
       <c r="FO45" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="FS45" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.35</v>
       </c>
       <c r="FT45" t="n">
         <v>0</v>
@@ -31303,7 +31303,7 @@
         <v>0</v>
       </c>
       <c r="GB45" t="n">
-        <v>0.8739494957512303</v>
+        <v>0.852936105461599</v>
       </c>
       <c r="GC45" t="n">
         <v>0</v>
@@ -31318,7 +31318,7 @@
         <v>0</v>
       </c>
       <c r="GG45" t="n">
-        <v>0.4976531813077906</v>
+        <v>0.4769696007084728</v>
       </c>
       <c r="GH45" t="n">
         <v>0</v>
@@ -31826,7 +31826,7 @@
         <v>0</v>
       </c>
       <c r="EB46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC46" t="n">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>0</v>
       </c>
       <c r="EL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM46" t="n">
         <v>0</v>
@@ -31898,7 +31898,7 @@
         <v>0</v>
       </c>
       <c r="EZ46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA46" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0</v>
       </c>
       <c r="FE46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF46" t="n">
         <v>0</v>
@@ -31940,7 +31940,7 @@
         <v>0</v>
       </c>
       <c r="FN46" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="FO46" t="n">
         <v>0</v>
@@ -31955,7 +31955,7 @@
         <v>0</v>
       </c>
       <c r="FS46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT46" t="n">
         <v>0</v>
@@ -31982,7 +31982,7 @@
         <v>0</v>
       </c>
       <c r="GB46" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="GC46" t="n">
         <v>0</v>
@@ -33935,7 +33935,7 @@
         <v>0</v>
       </c>
       <c r="EZ49" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="FA49" t="n">
         <v>0</v>
@@ -33950,7 +33950,7 @@
         <v>0</v>
       </c>
       <c r="FE49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FF49" t="n">
         <v>0</v>
@@ -33977,7 +33977,7 @@
         <v>0</v>
       </c>
       <c r="FN49" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="FO49" t="n">
         <v>0</v>
@@ -33992,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="FS49" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="FT49" t="n">
         <v>0</v>
@@ -34019,7 +34019,7 @@
         <v>0</v>
       </c>
       <c r="GB49" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GC49" t="n">
         <v>0</v>
@@ -34034,7 +34034,7 @@
         <v>0</v>
       </c>
       <c r="GG49" t="n">
-        <v>0.4898979485566357</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GH49" t="n">
         <v>0</v>
@@ -34542,7 +34542,7 @@
         <v>0</v>
       </c>
       <c r="EB50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EC50" t="n">
         <v>0</v>
@@ -34572,7 +34572,7 @@
         <v>0</v>
       </c>
       <c r="EL50" t="n">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="EM50" t="n">
         <v>0</v>
@@ -34602,7 +34602,7 @@
         <v>0</v>
       </c>
       <c r="EV50" t="n">
-        <v>0.4213250442347432</v>
+        <v>0</v>
       </c>
       <c r="EW50" t="n">
         <v>0</v>
@@ -34614,7 +34614,7 @@
         <v>0</v>
       </c>
       <c r="EZ50" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FA50" t="n">
         <v>0</v>
@@ -34629,7 +34629,7 @@
         <v>0</v>
       </c>
       <c r="FE50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF50" t="n">
         <v>0</v>
@@ -34656,7 +34656,7 @@
         <v>0</v>
       </c>
       <c r="FN50" t="n">
-        <v>0.3846153846153846</v>
+        <v>0</v>
       </c>
       <c r="FO50" t="n">
         <v>0</v>
@@ -34671,7 +34671,7 @@
         <v>0</v>
       </c>
       <c r="FS50" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="FT50" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="GB50" t="n">
-        <v>0.737820234355803</v>
+        <v>0</v>
       </c>
       <c r="GC50" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="GG50" t="n">
-        <v>0.3608012122941099</v>
+        <v>0</v>
       </c>
       <c r="GH50" t="n">
         <v>0</v>
@@ -35900,94 +35900,94 @@
         <v>0</v>
       </c>
       <c r="EB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE52" t="n">
         <v>1</v>
-      </c>
-      <c r="EC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER52" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES52" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EW52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY52" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ52" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE52" t="n">
-        <v>2</v>
       </c>
       <c r="FF52" t="n">
         <v>0</v>
@@ -36579,7 +36579,7 @@
         <v>0</v>
       </c>
       <c r="EB53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EC53" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="EL53" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="EM53" t="n">
         <v>0</v>
@@ -36639,7 +36639,7 @@
         <v>0</v>
       </c>
       <c r="EV53" t="n">
-        <v>0.4330127018922193</v>
+        <v>0.5</v>
       </c>
       <c r="EW53" t="n">
         <v>0</v>
@@ -36666,7 +36666,7 @@
         <v>0</v>
       </c>
       <c r="FE53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FF53" t="n">
         <v>0</v>
@@ -37258,7 +37258,7 @@
         <v>0</v>
       </c>
       <c r="EB54" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EC54" t="n">
         <v>0</v>
@@ -37288,7 +37288,7 @@
         <v>0</v>
       </c>
       <c r="EL54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM54" t="n">
         <v>0</v>
@@ -37330,7 +37330,7 @@
         <v>0</v>
       </c>
       <c r="EZ54" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="FA54" t="n">
         <v>0</v>
@@ -37345,7 +37345,7 @@
         <v>0</v>
       </c>
       <c r="FE54" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="FF54" t="n">
         <v>0</v>
@@ -37372,7 +37372,7 @@
         <v>0</v>
       </c>
       <c r="FN54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO54" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="FS54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT54" t="n">
         <v>0</v>
@@ -37919,7 +37919,7 @@
         <v>0.4</v>
       </c>
       <c r="DV55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DW55" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="EB55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="EC55" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="EF55" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="EG55" t="n">
         <v>0</v>
@@ -37979,7 +37979,7 @@
         <v>0</v>
       </c>
       <c r="EP55" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="EQ55" t="n">
         <v>0</v>
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="EZ55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FA55" t="n">
         <v>0</v>
@@ -38024,7 +38024,7 @@
         <v>0</v>
       </c>
       <c r="FE55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="FF55" t="n">
         <v>0</v>
@@ -38051,7 +38051,7 @@
         <v>0</v>
       </c>
       <c r="FN55" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="FO55" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="GB55" t="n">
-        <v>0.82915619758885</v>
+        <v>0</v>
       </c>
       <c r="GC55" t="n">
         <v>0</v>
@@ -38598,7 +38598,7 @@
         <v>0</v>
       </c>
       <c r="DV56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW56" t="n">
         <v>0</v>
@@ -38607,7 +38607,7 @@
         <v>0</v>
       </c>
       <c r="DY56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ56" t="n">
         <v>0</v>
@@ -38616,7 +38616,7 @@
         <v>0</v>
       </c>
       <c r="EB56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EC56" t="n">
         <v>0</v>
@@ -38628,7 +38628,7 @@
         <v>0</v>
       </c>
       <c r="EF56" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="EG56" t="n">
         <v>0</v>
@@ -38637,7 +38637,7 @@
         <v>0</v>
       </c>
       <c r="EI56" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="EJ56" t="n">
         <v>0</v>
@@ -38646,7 +38646,7 @@
         <v>0</v>
       </c>
       <c r="EL56" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="EM56" t="n">
         <v>0</v>
@@ -38658,7 +38658,7 @@
         <v>0</v>
       </c>
       <c r="EP56" t="n">
-        <v>0.4898979485566357</v>
+        <v>0</v>
       </c>
       <c r="EQ56" t="n">
         <v>0</v>
@@ -38667,7 +38667,7 @@
         <v>0</v>
       </c>
       <c r="ES56" t="n">
-        <v>0.4898979485566357</v>
+        <v>0</v>
       </c>
       <c r="ET56" t="n">
         <v>0</v>
@@ -38676,7 +38676,7 @@
         <v>0</v>
       </c>
       <c r="EV56" t="n">
-        <v>0.4898979485566357</v>
+        <v>0</v>
       </c>
       <c r="EW56" t="n">
         <v>0</v>
@@ -38688,7 +38688,7 @@
         <v>0</v>
       </c>
       <c r="EZ56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FA56" t="n">
         <v>0</v>
@@ -38703,7 +38703,7 @@
         <v>0</v>
       </c>
       <c r="FE56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FF56" t="n">
         <v>0</v>
@@ -38724,13 +38724,13 @@
         <v>0</v>
       </c>
       <c r="FL56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FM56" t="n">
         <v>0</v>
       </c>
       <c r="FN56" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="FO56" t="n">
         <v>0</v>
@@ -38745,7 +38745,7 @@
         <v>0</v>
       </c>
       <c r="FS56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT56" t="n">
         <v>0</v>
@@ -38766,13 +38766,13 @@
         <v>0</v>
       </c>
       <c r="FZ56" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GA56" t="n">
         <v>0</v>
       </c>
       <c r="GB56" t="n">
-        <v>0.4898979485566356</v>
+        <v>0</v>
       </c>
       <c r="GC56" t="n">
         <v>0</v>
@@ -38808,7 +38808,7 @@
         <v>0</v>
       </c>
       <c r="GN56" t="n">
-        <v>0.4898979485566357</v>
+        <v>0</v>
       </c>
       <c r="GO56" t="n">
         <v>0</v>
@@ -39277,7 +39277,7 @@
         <v>0</v>
       </c>
       <c r="DV57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DW57" t="n">
         <v>0</v>
@@ -39286,7 +39286,7 @@
         <v>0</v>
       </c>
       <c r="DY57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ57" t="n">
         <v>0</v>
@@ -39295,19 +39295,19 @@
         <v>0</v>
       </c>
       <c r="EB57" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="EC57" t="n">
         <v>0</v>
       </c>
       <c r="ED57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EE57" t="n">
         <v>0</v>
       </c>
       <c r="EF57" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="EG57" t="n">
         <v>0</v>
@@ -39316,7 +39316,7 @@
         <v>0</v>
       </c>
       <c r="EI57" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="EJ57" t="n">
         <v>0</v>
@@ -39325,19 +39325,19 @@
         <v>0</v>
       </c>
       <c r="EL57" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="EM57" t="n">
         <v>0</v>
       </c>
       <c r="EN57" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="EO57" t="n">
         <v>0</v>
       </c>
       <c r="EP57" t="n">
-        <v>0.3307189138830738</v>
+        <v>0</v>
       </c>
       <c r="EQ57" t="n">
         <v>0</v>
@@ -39346,7 +39346,7 @@
         <v>0</v>
       </c>
       <c r="ES57" t="n">
-        <v>0.3307189138830738</v>
+        <v>0</v>
       </c>
       <c r="ET57" t="n">
         <v>0</v>
@@ -39355,19 +39355,19 @@
         <v>0</v>
       </c>
       <c r="EV57" t="n">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
       <c r="EW57" t="n">
         <v>0</v>
       </c>
       <c r="EX57" t="n">
-        <v>0.3307189138830738</v>
+        <v>0</v>
       </c>
       <c r="EY57" t="n">
         <v>0</v>
       </c>
       <c r="EZ57" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="FA57" t="n">
         <v>0</v>
@@ -39376,13 +39376,13 @@
         <v>0</v>
       </c>
       <c r="FC57" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="FD57" t="n">
         <v>0</v>
       </c>
       <c r="FE57" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="FF57" t="n">
         <v>0</v>
@@ -39403,13 +39403,13 @@
         <v>0</v>
       </c>
       <c r="FL57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FM57" t="n">
         <v>0</v>
       </c>
       <c r="FN57" t="n">
-        <v>1.0625</v>
+        <v>0</v>
       </c>
       <c r="FO57" t="n">
         <v>0</v>
@@ -39418,13 +39418,13 @@
         <v>0</v>
       </c>
       <c r="FQ57" t="n">
-        <v>0.6875</v>
+        <v>0</v>
       </c>
       <c r="FR57" t="n">
         <v>0</v>
       </c>
       <c r="FS57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT57" t="n">
         <v>0</v>
@@ -39445,13 +39445,13 @@
         <v>0</v>
       </c>
       <c r="FZ57" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="GA57" t="n">
         <v>0</v>
       </c>
       <c r="GB57" t="n">
-        <v>0.4284784125250652</v>
+        <v>0</v>
       </c>
       <c r="GC57" t="n">
         <v>0</v>
@@ -39460,7 +39460,7 @@
         <v>0</v>
       </c>
       <c r="GE57" t="n">
-        <v>0.582961190818051</v>
+        <v>0</v>
       </c>
       <c r="GF57" t="n">
         <v>0</v>
@@ -39487,7 +39487,7 @@
         <v>0</v>
       </c>
       <c r="GN57" t="n">
-        <v>0.3307189138830738</v>
+        <v>0</v>
       </c>
       <c r="GO57" t="n">
         <v>0</v>
@@ -40046,7 +40046,7 @@
         <v>0</v>
       </c>
       <c r="EZ58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA58" t="n">
         <v>0</v>
@@ -40088,7 +40088,7 @@
         <v>0</v>
       </c>
       <c r="FN58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO58" t="n">
         <v>0</v>
@@ -40635,98 +40635,98 @@
         <v>0.2575393768188564</v>
       </c>
       <c r="DV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER59" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES59" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ59" t="n">
         <v>2</v>
       </c>
-      <c r="DW59" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX59" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY59" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB59" t="n">
-        <v>7</v>
-      </c>
-      <c r="EC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF59" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="EG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL59" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="EM59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP59" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EQ59" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER59" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES59" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV59" t="n">
-        <v>0.4582575694955839</v>
-      </c>
-      <c r="EW59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY59" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ59" t="n">
-        <v>11</v>
-      </c>
       <c r="FA59" t="n">
         <v>0</v>
       </c>
@@ -40734,13 +40734,13 @@
         <v>0</v>
       </c>
       <c r="FC59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FD59" t="n">
         <v>0</v>
       </c>
       <c r="FE59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FF59" t="n">
         <v>0</v>
@@ -40767,7 +40767,7 @@
         <v>0</v>
       </c>
       <c r="FN59" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="FO59" t="n">
         <v>0</v>
@@ -40776,13 +40776,13 @@
         <v>0</v>
       </c>
       <c r="FQ59" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="FR59" t="n">
         <v>0</v>
       </c>
       <c r="FS59" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="FT59" t="n">
         <v>0</v>
@@ -40809,7 +40809,7 @@
         <v>0</v>
       </c>
       <c r="GB59" t="n">
-        <v>0.8306623862918074</v>
+        <v>0</v>
       </c>
       <c r="GC59" t="n">
         <v>0</v>
@@ -40818,13 +40818,13 @@
         <v>0</v>
       </c>
       <c r="GE59" t="n">
-        <v>0.4582575694955839</v>
+        <v>0</v>
       </c>
       <c r="GF59" t="n">
         <v>0</v>
       </c>
       <c r="GG59" t="n">
-        <v>0.4582575694955839</v>
+        <v>0</v>
       </c>
       <c r="GH59" t="n">
         <v>0</v>
@@ -41314,98 +41314,98 @@
         <v>0.2575393768188564</v>
       </c>
       <c r="DV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW60" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER60" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES60" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ60" t="n">
         <v>2</v>
       </c>
-      <c r="DW60" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX60" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY60" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB60" t="n">
-        <v>7</v>
-      </c>
-      <c r="EC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF60" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="EG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL60" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="EM60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP60" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EQ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER60" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES60" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV60" t="n">
-        <v>0.4582575694955839</v>
-      </c>
-      <c r="EW60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY60" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ60" t="n">
-        <v>11</v>
-      </c>
       <c r="FA60" t="n">
         <v>0</v>
       </c>
@@ -41413,13 +41413,13 @@
         <v>0</v>
       </c>
       <c r="FC60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FD60" t="n">
         <v>0</v>
       </c>
       <c r="FE60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="FF60" t="n">
         <v>0</v>
@@ -41446,7 +41446,7 @@
         <v>0</v>
       </c>
       <c r="FN60" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="FO60" t="n">
         <v>0</v>
@@ -41455,13 +41455,13 @@
         <v>0</v>
       </c>
       <c r="FQ60" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="FR60" t="n">
         <v>0</v>
       </c>
       <c r="FS60" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="FT60" t="n">
         <v>0</v>
@@ -41488,7 +41488,7 @@
         <v>0</v>
       </c>
       <c r="GB60" t="n">
-        <v>0.8306623862918074</v>
+        <v>0</v>
       </c>
       <c r="GC60" t="n">
         <v>0</v>
@@ -41497,13 +41497,13 @@
         <v>0</v>
       </c>
       <c r="GE60" t="n">
-        <v>0.4582575694955839</v>
+        <v>0</v>
       </c>
       <c r="GF60" t="n">
         <v>0</v>
       </c>
       <c r="GG60" t="n">
-        <v>0.4582575694955839</v>
+        <v>0</v>
       </c>
       <c r="GH60" t="n">
         <v>0</v>
@@ -44048,7 +44048,7 @@
         <v>0</v>
       </c>
       <c r="EB64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC64" t="n">
         <v>0</v>
@@ -44078,7 +44078,7 @@
         <v>0</v>
       </c>
       <c r="EL64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM64" t="n">
         <v>0</v>
@@ -44120,7 +44120,7 @@
         <v>0</v>
       </c>
       <c r="EZ64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FA64" t="n">
         <v>0</v>
@@ -44135,7 +44135,7 @@
         <v>0</v>
       </c>
       <c r="FE64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF64" t="n">
         <v>0</v>
@@ -44162,7 +44162,7 @@
         <v>0</v>
       </c>
       <c r="FN64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO64" t="n">
         <v>0</v>
@@ -44177,7 +44177,7 @@
         <v>0</v>
       </c>
       <c r="FS64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT64" t="n">
         <v>0</v>
@@ -44709,7 +44709,7 @@
         <v>0</v>
       </c>
       <c r="DV65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DW65" t="n">
         <v>0</v>
@@ -44727,7 +44727,7 @@
         <v>0</v>
       </c>
       <c r="EB65" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="EC65" t="n">
         <v>0</v>
@@ -44739,7 +44739,7 @@
         <v>0</v>
       </c>
       <c r="EF65" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="EG65" t="n">
         <v>0</v>
@@ -44757,7 +44757,7 @@
         <v>0</v>
       </c>
       <c r="EL65" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="EM65" t="n">
         <v>0</v>
@@ -44769,7 +44769,7 @@
         <v>0</v>
       </c>
       <c r="EP65" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="EQ65" t="n">
         <v>0</v>
@@ -44787,7 +44787,7 @@
         <v>0</v>
       </c>
       <c r="EV65" t="n">
-        <v>0.339934634239519</v>
+        <v>0</v>
       </c>
       <c r="EW65" t="n">
         <v>0</v>
@@ -44799,7 +44799,7 @@
         <v>0</v>
       </c>
       <c r="EZ65" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="FA65" t="n">
         <v>0</v>
@@ -44808,13 +44808,13 @@
         <v>0</v>
       </c>
       <c r="FC65" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="FD65" t="n">
         <v>0</v>
       </c>
       <c r="FE65" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="FF65" t="n">
         <v>0</v>
@@ -44841,7 +44841,7 @@
         <v>0</v>
       </c>
       <c r="FN65" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="FO65" t="n">
         <v>0</v>
@@ -44850,13 +44850,13 @@
         <v>0</v>
       </c>
       <c r="FQ65" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="FR65" t="n">
         <v>0</v>
       </c>
       <c r="FS65" t="n">
-        <v>1.066666666666667</v>
+        <v>0</v>
       </c>
       <c r="FT65" t="n">
         <v>0</v>
@@ -44883,7 +44883,7 @@
         <v>0</v>
       </c>
       <c r="GB65" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GC65" t="n">
         <v>0</v>
@@ -44892,13 +44892,13 @@
         <v>0</v>
       </c>
       <c r="GE65" t="n">
-        <v>0.339934634239519</v>
+        <v>0</v>
       </c>
       <c r="GF65" t="n">
         <v>0</v>
       </c>
       <c r="GG65" t="n">
-        <v>0.2494438257849294</v>
+        <v>0</v>
       </c>
       <c r="GH65" t="n">
         <v>0</v>
@@ -45388,7 +45388,7 @@
         <v>0.3630921887069453</v>
       </c>
       <c r="DV66" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="DW66" t="n">
         <v>0</v>
@@ -45406,7 +45406,7 @@
         <v>0</v>
       </c>
       <c r="EB66" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="EC66" t="n">
         <v>0</v>
@@ -45415,10 +45415,10 @@
         <v>0</v>
       </c>
       <c r="EE66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="EF66" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="EG66" t="n">
         <v>0</v>
@@ -45436,7 +45436,7 @@
         <v>0</v>
       </c>
       <c r="EL66" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="EM66" t="n">
         <v>0</v>
@@ -45445,10 +45445,10 @@
         <v>0</v>
       </c>
       <c r="EO66" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="EP66" t="n">
-        <v>0.4582575694955839</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="EQ66" t="n">
         <v>0</v>
@@ -45466,7 +45466,7 @@
         <v>0</v>
       </c>
       <c r="EV66" t="n">
-        <v>0.4</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="EW66" t="n">
         <v>0</v>
@@ -45475,10 +45475,10 @@
         <v>0</v>
       </c>
       <c r="EY66" t="n">
-        <v>0.4</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="EZ66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="FA66" t="n">
         <v>0</v>
@@ -45493,7 +45493,7 @@
         <v>0</v>
       </c>
       <c r="FE66" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="FF66" t="n">
         <v>0</v>
@@ -45520,7 +45520,7 @@
         <v>0</v>
       </c>
       <c r="FN66" t="n">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="FO66" t="n">
         <v>0</v>
@@ -45535,7 +45535,7 @@
         <v>0</v>
       </c>
       <c r="FS66" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="FT66" t="n">
         <v>0</v>
@@ -45562,7 +45562,7 @@
         <v>0</v>
       </c>
       <c r="GB66" t="n">
-        <v>0.5722761571129797</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="GC66" t="n">
         <v>0</v>
@@ -45577,7 +45577,7 @@
         <v>0</v>
       </c>
       <c r="GG66" t="n">
-        <v>0.4582575694955839</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="GH66" t="n">
         <v>0</v>
